--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -1026,6 +1026,16 @@
     <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
   </si>
   <si>
+    <t>itemRenderingSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/item-rendering-settings}
+</t>
+  </si>
+  <si>
+    <t>Extension : Item Rendering Settings</t>
+  </si>
+  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -1066,16 +1076,6 @@
   </si>
   <si>
     <t>Extension : observationExtract</t>
-  </si>
-  <si>
-    <t>itemRenderingSettings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/item-rendering-settings}
-</t>
-  </si>
-  <si>
-    <t>Extension : Item Rendering Settings</t>
   </si>
   <si>
     <t>minValue</t>
@@ -6127,7 +6127,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6145,11 +6145,9 @@
         <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6233,7 +6231,7 @@
         <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>77</v>
@@ -6255,16 +6253,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6349,7 +6347,7 @@
         <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6371,15 +6369,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6473,7 +6473,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6491,7 +6491,7 @@
         <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -10729,11 +10729,9 @@
         <v>327</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10817,7 +10815,7 @@
         <v>490</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -10839,16 +10837,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10933,7 +10931,7 @@
         <v>490</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10955,15 +10953,17 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11075,7 +11075,7 @@
         <v>340</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -434,23 +434,40 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/form-settings}
+    <t>subStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/sub-status}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension : Form Settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Questionnaire.settings </t>
+    <t>Extension : SubStatus</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>createUpdateAtDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/resource--create-updateat-datetime}
+</t>
+  </si>
+  <si>
+    <t>Extension : ResourceCreateUpdateAtDateTime</t>
+  </si>
+  <si>
+    <t>formSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/rendering-settings}
+</t>
+  </si>
+  <si>
+    <t>Extension : Item Rendering Settings</t>
+  </si>
+  <si>
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
@@ -1027,13 +1044,6 @@
   </si>
   <si>
     <t>itemRenderingSettings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/item-rendering-settings}
-</t>
-  </si>
-  <si>
-    <t>Extension : Item Rendering Settings</t>
   </si>
   <si>
     <t>hidden</t>
@@ -1945,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1955,7 +1965,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.1484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3055,7 +3065,7 @@
         <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3115,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>134</v>
@@ -3138,43 +3148,41 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3222,7 +3230,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3231,7 +3239,7 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>134</v>
@@ -3240,7 +3248,7 @@
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3254,9 +3262,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3265,7 +3275,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3274,23 +3284,19 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3338,28 +3344,28 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3370,42 +3376,42 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3454,7 +3460,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3466,19 +3472,19 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3494,7 +3500,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
@@ -3509,18 +3515,20 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3529,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3568,7 +3576,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3583,13 +3591,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3608,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3608,7 +3616,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>83</v>
@@ -3623,19 +3631,19 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3684,31 +3692,31 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3716,7 +3724,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3724,7 +3732,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>83</v>
@@ -3742,13 +3750,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3759,7 +3767,7 @@
         <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -3798,7 +3806,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3813,13 +3821,13 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3830,7 +3838,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3841,7 +3849,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3850,20 +3858,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3912,25 +3922,25 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3944,7 +3954,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3952,7 +3962,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
@@ -3961,22 +3971,22 @@
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4002,13 +4012,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -4026,10 +4036,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>83</v>
@@ -4041,13 +4051,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4058,7 +4068,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4069,7 +4079,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -4078,22 +4088,20 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4142,13 +4150,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -4157,13 +4165,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4174,7 +4182,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4182,16 +4190,16 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>84</v>
@@ -4200,13 +4208,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4232,13 +4240,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4256,13 +4264,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4271,13 +4279,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4288,11 +4296,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4311,18 +4319,20 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4385,13 +4395,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4402,7 +4412,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4413,7 +4423,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4425,20 +4435,18 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4462,13 +4470,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4486,13 +4494,13 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
@@ -4501,13 +4509,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4518,18 +4526,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4541,16 +4549,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4600,13 +4608,13 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
@@ -4615,13 +4623,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4632,7 +4640,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4652,21 +4660,23 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4729,13 +4739,13 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4746,7 +4756,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4769,20 +4779,18 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4845,10 +4853,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4862,7 +4870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4873,7 +4881,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4882,19 +4890,19 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4920,13 +4928,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4944,13 +4952,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4959,10 +4967,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4976,7 +4984,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4987,7 +4995,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4996,21 +5004,23 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5058,13 +5068,13 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
@@ -5073,16 +5083,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5090,18 +5100,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5110,21 +5120,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5148,13 +5158,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5172,13 +5182,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5187,16 +5197,16 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5204,7 +5214,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5227,16 +5237,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5286,7 +5296,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5301,16 +5311,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5318,11 +5328,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5341,19 +5351,17 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5402,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5417,16 +5425,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5442,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5454,23 +5462,21 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5533,16 +5539,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5556,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5561,7 +5567,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5570,20 +5576,22 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5608,13 +5616,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5632,13 +5640,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5647,16 +5655,16 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5672,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5675,7 +5683,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5684,21 +5692,23 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5746,31 +5756,31 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5778,7 +5788,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5789,7 +5799,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5798,19 +5808,21 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5834,13 +5846,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5858,25 +5870,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5890,7 +5902,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5913,15 +5925,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5958,17 +5972,19 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5977,16 +5993,16 @@
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -6002,9 +6018,7 @@
       <c r="A36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6025,13 +6039,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6082,25 +6096,25 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6114,11 +6128,9 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6139,13 +6151,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6184,19 +6196,17 @@
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6205,7 +6215,7 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>134</v>
@@ -6228,10 +6238,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>77</v>
@@ -6253,17 +6263,15 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6312,7 +6320,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6321,7 +6329,7 @@
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>134</v>
@@ -6344,10 +6352,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6357,7 +6365,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6369,17 +6377,15 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6428,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6437,7 +6443,7 @@
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>134</v>
@@ -6460,10 +6466,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>77</v>
@@ -6485,15 +6491,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6542,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6551,7 +6559,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>134</v>
@@ -6574,10 +6582,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
@@ -6599,16 +6607,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6658,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6667,7 +6675,7 @@
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>134</v>
@@ -6676,7 +6684,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6685,48 +6693,46 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6783,7 +6789,7 @@
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>134</v>
@@ -6792,7 +6798,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6806,15 +6812,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>83</v>
@@ -6829,20 +6837,18 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6890,25 +6896,25 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6917,47 +6923,47 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7006,25 +7012,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7038,7 +7044,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7046,10 +7052,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -7061,19 +7067,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7098,13 +7104,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7122,16 +7128,16 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>95</v>
@@ -7140,7 +7146,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7154,11 +7160,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7177,19 +7183,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7238,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7256,7 +7262,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7270,7 +7276,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7281,7 +7287,7 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7293,18 +7299,20 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7328,13 +7336,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7352,16 +7360,16 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>95</v>
@@ -7370,7 +7378,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7384,15 +7392,15 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>83</v>
@@ -7407,19 +7415,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7444,13 +7452,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7468,10 +7476,10 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -7486,7 +7494,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7500,7 +7508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7511,32 +7519,30 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7584,25 +7590,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>393</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7622,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7624,7 +7630,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>83</v>
@@ -7639,16 +7645,20 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7672,13 +7682,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7696,10 +7706,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
@@ -7708,13 +7718,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7728,11 +7738,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7745,24 +7755,26 @@
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7810,7 +7822,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7822,13 +7834,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7842,43 +7854,39 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7926,25 +7934,25 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7958,18 +7966,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7981,16 +7989,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>149</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8040,25 +8048,25 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8072,39 +8080,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8128,13 +8140,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8152,25 +8164,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>387</v>
+        <v>126</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8184,7 +8196,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8207,15 +8219,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8240,13 +8254,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8264,7 +8278,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8273,7 +8287,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8282,7 +8296,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8296,7 +8310,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8304,7 +8318,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>83</v>
@@ -8322,14 +8336,12 @@
         <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8354,13 +8366,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8378,16 +8390,16 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8396,7 +8408,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8410,7 +8422,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8418,7 +8430,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>83</v>
@@ -8433,24 +8445,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8470,13 +8478,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8494,16 +8502,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8512,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8526,7 +8534,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8549,26 +8557,22 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8588,13 +8592,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8612,7 +8616,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8621,7 +8625,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8630,7 +8634,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8644,7 +8648,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8667,24 +8671,24 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8728,7 +8732,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8737,7 +8741,7 @@
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8746,7 +8750,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8760,7 +8764,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8783,22 +8787,26 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>440</v>
+        <v>207</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8842,7 +8850,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8851,7 +8859,7 @@
         <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8860,7 +8868,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8869,12 +8877,12 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8897,18 +8905,20 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>446</v>
+        <v>207</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8956,7 +8966,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8965,7 +8975,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8974,7 +8984,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8988,7 +8998,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8999,7 +9009,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9011,16 +9021,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>307</v>
+        <v>443</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9070,16 +9080,16 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9088,7 +9098,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9097,12 +9107,12 @@
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9125,15 +9135,17 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>449</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9182,7 +9194,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9191,16 +9203,16 @@
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9214,11 +9226,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9237,16 +9249,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>144</v>
+        <v>457</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9296,7 +9308,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9305,16 +9317,16 @@
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9328,43 +9340,39 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9412,25 +9420,25 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9444,18 +9452,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9467,16 +9475,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>149</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9502,13 +9510,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9526,25 +9534,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9558,47 +9566,47 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>352</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P67" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9642,25 +9650,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>387</v>
+        <v>126</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9674,7 +9682,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9682,10 +9690,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9697,20 +9705,18 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>307</v>
+        <v>462</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9734,13 +9740,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9758,16 +9764,16 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9776,7 +9782,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9796,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9813,20 +9819,24 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="Q69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9870,7 +9880,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9882,13 +9892,13 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9902,11 +9912,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9925,18 +9935,20 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9984,7 +9996,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9993,16 +10005,16 @@
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10016,43 +10028,39 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10100,25 +10108,25 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10132,18 +10140,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10155,16 +10163,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>478</v>
+        <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>481</v>
+        <v>149</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10190,13 +10198,13 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10214,25 +10222,25 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>477</v>
+        <v>325</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10246,11 +10254,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10263,25 +10271,25 @@
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>307</v>
+        <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
+        <v>353</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10330,7 +10338,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>482</v>
+        <v>354</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10339,16 +10347,16 @@
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>488</v>
+        <v>126</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10362,7 +10370,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10370,7 +10378,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>83</v>
@@ -10385,15 +10393,17 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>481</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>315</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10418,13 +10428,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10442,10 +10452,10 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>317</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -10454,13 +10464,13 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10474,7 +10484,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10497,16 +10507,20 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10542,17 +10556,19 @@
         <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>320</v>
+        <v>485</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10561,16 +10577,16 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10584,11 +10600,9 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10609,13 +10623,13 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10666,25 +10680,25 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10698,11 +10712,9 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10711,7 +10723,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10723,13 +10735,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10768,19 +10780,17 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10789,7 +10799,7 @@
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>134</v>
@@ -10812,10 +10822,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -10837,17 +10847,15 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K78" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10896,7 +10904,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10905,7 +10913,7 @@
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>134</v>
@@ -10928,10 +10936,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10953,17 +10961,15 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11012,7 +11018,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11021,7 +11027,7 @@
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>134</v>
@@ -11044,10 +11050,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11069,15 +11075,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11126,7 +11134,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11135,7 +11143,7 @@
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>134</v>
@@ -11158,10 +11166,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11183,16 +11191,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11242,7 +11250,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11251,7 +11259,7 @@
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>134</v>
@@ -11260,7 +11268,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11269,48 +11277,46 @@
         <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C82" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>342</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11358,7 +11364,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11367,7 +11373,7 @@
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>134</v>
@@ -11376,7 +11382,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11390,15 +11396,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>83</v>
@@ -11413,20 +11421,18 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11474,25 +11480,25 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11501,47 +11507,47 @@
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11590,25 +11596,25 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11622,7 +11628,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11630,10 +11636,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11645,19 +11651,19 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11682,13 +11688,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11706,16 +11712,16 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>95</v>
@@ -11724,7 +11730,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11738,11 +11744,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11761,19 +11767,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11822,7 +11828,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11840,7 +11846,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11854,7 +11860,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11865,7 +11871,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11877,18 +11883,20 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11912,13 +11920,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -11936,16 +11944,16 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>95</v>
@@ -11954,7 +11962,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11968,15 +11976,15 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>83</v>
@@ -11991,19 +11999,19 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12028,13 +12036,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12052,10 +12060,10 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -12070,7 +12078,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12084,7 +12092,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12095,32 +12103,30 @@
         <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12168,25 +12174,25 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>393</v>
+        <v>95</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12200,7 +12206,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12208,7 +12214,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>83</v>
@@ -12223,16 +12229,20 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12256,13 +12266,13 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12280,10 +12290,10 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
@@ -12292,13 +12302,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12312,11 +12322,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12329,24 +12339,26 @@
         <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12394,7 +12406,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12406,13 +12418,13 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12426,43 +12438,39 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12510,25 +12518,25 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12542,18 +12550,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -12565,16 +12573,16 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>402</v>
+        <v>149</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12624,25 +12632,25 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12656,39 +12664,43 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12712,13 +12724,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -12736,25 +12748,25 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>387</v>
+        <v>126</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12768,7 +12780,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12791,15 +12803,17 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>409</v>
+        <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>77</v>
@@ -12824,13 +12838,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12848,7 +12862,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12857,7 +12871,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -12866,7 +12880,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12880,7 +12894,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12888,7 +12902,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>83</v>
@@ -12906,14 +12920,12 @@
         <v>103</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -12938,13 +12950,13 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -12962,16 +12974,16 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -12980,7 +12992,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12994,7 +13006,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13002,7 +13014,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>83</v>
@@ -13017,24 +13029,20 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>202</v>
+        <v>412</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P97" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13054,13 +13062,13 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13078,16 +13086,16 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13096,7 +13104,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13110,7 +13118,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13133,26 +13141,22 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P98" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13172,13 +13176,13 @@
         <v>77</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>77</v>
@@ -13196,7 +13200,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13205,7 +13209,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13214,7 +13218,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13228,7 +13232,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13251,24 +13255,24 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13312,7 +13316,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13321,7 +13325,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13330,7 +13334,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13344,7 +13348,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13367,22 +13371,26 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>440</v>
+        <v>207</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13426,7 +13434,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13435,7 +13443,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -13444,7 +13452,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13453,12 +13461,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13481,18 +13489,20 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>446</v>
+        <v>207</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13540,7 +13550,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13549,7 +13559,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -13558,7 +13568,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13572,7 +13582,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13583,7 +13593,7 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>77</v>
@@ -13595,16 +13605,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>307</v>
+        <v>443</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13654,16 +13664,16 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -13672,7 +13682,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13681,12 +13691,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13709,15 +13719,17 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>449</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>315</v>
+        <v>450</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -13766,7 +13778,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13775,16 +13787,16 @@
         <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13798,11 +13810,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13821,16 +13833,16 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>144</v>
+        <v>457</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13880,7 +13892,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13889,16 +13901,16 @@
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13912,43 +13924,39 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>77</v>
       </c>
@@ -13996,25 +14004,25 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14028,18 +14036,18 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>77</v>
@@ -14051,16 +14059,16 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>462</v>
+        <v>149</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14086,13 +14094,13 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14110,25 +14118,25 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14142,47 +14150,47 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>464</v>
+        <v>352</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>465</v>
+        <v>353</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P107" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14226,25 +14234,25 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>387</v>
+        <v>126</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14258,7 +14266,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14266,10 +14274,10 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>77</v>
@@ -14281,20 +14289,18 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>307</v>
+        <v>462</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
@@ -14318,13 +14324,13 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -14342,16 +14348,16 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>95</v>
@@ -14360,7 +14366,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14374,7 +14380,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14397,20 +14403,24 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="Q109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14454,7 +14464,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14466,13 +14476,13 @@
         <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14486,11 +14496,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14509,18 +14519,20 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>77</v>
       </c>
@@ -14568,7 +14580,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -14577,16 +14589,16 @@
         <v>76</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14600,43 +14612,39 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14684,25 +14692,25 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14716,18 +14724,18 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>77</v>
@@ -14739,16 +14747,16 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>478</v>
+        <v>128</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>481</v>
+        <v>149</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14774,13 +14782,13 @@
         <v>77</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>77</v>
@@ -14798,25 +14806,25 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>477</v>
+        <v>325</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -14830,11 +14838,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14847,25 +14855,25 @@
         <v>77</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>484</v>
+        <v>353</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -14914,7 +14922,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>482</v>
+        <v>354</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -14923,24 +14931,254 @@
         <v>76</v>
       </c>
       <c r="AH113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AI113" t="s" s="2">
+      <c r="M115" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AI115" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AJ115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -451,7 +451,7 @@
     <t>createUpdateAtDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/resource--create-updateat-datetime}
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/resource-create-updateat-datetime}
 </t>
   </si>
   <si>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -1028,19 +1028,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/item-settings}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Item Settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
   </si>
   <si>
     <t>itemRenderingSettings</t>
@@ -1955,7 +1942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN115"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6251,7 +6238,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6263,13 +6250,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6355,7 +6342,7 @@
         <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6365,7 +6352,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6377,15 +6364,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6469,7 +6458,7 @@
         <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>77</v>
@@ -6491,16 +6480,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6585,7 +6574,7 @@
         <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
@@ -6607,17 +6596,15 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6701,7 +6688,7 @@
         <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>77</v>
@@ -6723,15 +6710,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M42" s="2"/>
+      <c r="M42" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6798,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6807,48 +6796,48 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6896,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6905,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>134</v>
@@ -6914,7 +6903,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6923,35 +6912,35 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>352</v>
@@ -6960,10 +6949,10 @@
         <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7012,25 +7001,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>126</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7044,7 +7033,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7052,7 +7041,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>83</v>
@@ -7067,19 +7056,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7128,10 +7117,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
@@ -7146,7 +7135,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7160,7 +7149,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7171,7 +7160,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7183,19 +7172,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7220,13 +7209,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7244,16 +7233,16 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>95</v>
@@ -7262,7 +7251,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7276,18 +7265,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7299,19 +7288,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7336,13 +7325,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7360,16 +7349,16 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>95</v>
@@ -7378,7 +7367,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7392,11 +7381,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7418,17 +7407,15 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7476,7 +7463,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7494,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>251</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7516,7 +7503,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7531,7 +7518,7 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>380</v>
@@ -7542,7 +7529,9 @@
       <c r="M49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7566,13 +7555,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7593,7 +7582,7 @@
         <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -7608,7 +7597,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7622,7 +7611,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7630,34 +7619,34 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7682,13 +7671,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7706,25 +7695,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>392</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7738,7 +7727,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7749,32 +7738,28 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7822,25 +7807,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7854,18 +7839,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7877,15 +7862,17 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7934,19 +7921,19 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
@@ -7966,11 +7953,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7983,24 +7970,26 @@
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8048,7 +8037,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8066,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8080,43 +8069,41 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8164,25 +8151,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8219,7 +8206,7 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>403</v>
@@ -8227,9 +8214,7 @@
       <c r="L55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8254,13 +8239,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8296,7 +8281,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8310,7 +8295,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8333,13 +8318,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8366,13 +8351,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8390,7 +8375,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>83</v>
@@ -8399,7 +8384,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8408,7 +8393,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8422,7 +8407,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8430,7 +8415,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>83</v>
@@ -8445,15 +8430,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>412</v>
+        <v>103</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8478,13 +8465,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8502,16 +8489,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8520,7 +8507,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8534,7 +8521,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8557,22 +8544,24 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8592,32 +8581,32 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8625,7 +8614,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8634,7 +8623,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8648,7 +8637,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8674,74 +8663,76 @@
         <v>207</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8750,7 +8741,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8764,7 +8755,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8790,68 +8781,66 @@
         <v>207</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8859,7 +8848,7 @@
         <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8868,7 +8857,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8882,7 +8871,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8905,20 +8894,18 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>439</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8966,7 +8953,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8975,7 +8962,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8984,7 +8971,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8993,12 +8980,12 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9021,16 +9008,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9080,7 +9067,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9089,7 +9076,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9098,7 +9085,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9107,12 +9094,12 @@
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9123,7 +9110,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9135,16 +9122,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>449</v>
+        <v>312</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9194,16 +9181,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9212,7 +9199,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9237,7 +9224,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9249,17 +9236,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>320</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9308,25 +9293,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>322</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9340,18 +9325,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9363,15 +9348,17 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9420,19 +9407,19 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
@@ -9452,11 +9439,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9469,24 +9456,26 @@
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9534,7 +9523,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9552,7 +9541,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9566,43 +9555,41 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>128</v>
+        <v>458</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>352</v>
+        <v>459</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>460</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9626,13 +9613,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9650,25 +9637,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>457</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9682,7 +9669,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9690,7 +9677,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>83</v>
@@ -9705,7 +9692,7 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>462</v>
+        <v>207</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>463</v>
@@ -9720,7 +9707,9 @@
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9740,13 +9729,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9764,10 +9753,10 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -9782,7 +9771,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9796,7 +9785,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9807,7 +9796,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9819,77 +9808,77 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>95</v>
@@ -9898,7 +9887,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9912,7 +9901,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9923,7 +9912,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9935,20 +9924,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>472</v>
+        <v>320</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9996,25 +9981,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>471</v>
+        <v>322</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10028,18 +10013,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10051,15 +10036,17 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10108,19 +10095,19 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
@@ -10140,11 +10127,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10157,24 +10144,26 @@
         <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10222,7 +10211,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10240,7 +10229,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10254,43 +10243,41 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>128</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>352</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10314,13 +10301,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10338,25 +10325,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>354</v>
+        <v>476</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10370,7 +10357,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10378,10 +10365,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10393,7 +10380,7 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>481</v>
+        <v>312</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>482</v>
@@ -10404,7 +10391,9 @@
       <c r="M74" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10428,13 +10417,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10452,16 +10441,16 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -10470,7 +10459,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10484,7 +10473,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10495,7 +10484,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10507,20 +10496,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>320</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10568,25 +10553,25 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>485</v>
+        <v>322</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>491</v>
+        <v>323</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10600,7 +10585,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10611,7 +10596,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10623,13 +10608,13 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10668,37 +10653,35 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10712,9 +10695,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10723,7 +10708,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10735,13 +10720,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10780,14 +10765,16 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>325</v>
@@ -10799,7 +10786,7 @@
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>134</v>
@@ -10822,10 +10809,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -10847,15 +10834,17 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10936,10 +10925,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10961,15 +10950,17 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11050,10 +11041,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11075,17 +11066,15 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11166,10 +11155,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11191,16 +11180,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11268,7 +11257,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11277,46 +11266,48 @@
         <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11364,7 +11355,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11373,7 +11364,7 @@
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>134</v>
@@ -11382,7 +11373,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11396,17 +11387,15 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>83</v>
@@ -11421,18 +11410,20 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11480,25 +11471,25 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11507,47 +11498,47 @@
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11596,25 +11587,25 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>126</v>
+        <v>362</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11628,7 +11619,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11636,10 +11627,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11651,19 +11642,19 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11688,13 +11679,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11712,16 +11703,16 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>95</v>
@@ -11730,7 +11721,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11744,11 +11735,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11767,19 +11758,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11828,7 +11819,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11846,7 +11837,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11860,7 +11851,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11871,7 +11862,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11883,20 +11874,18 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11920,13 +11909,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -11944,16 +11933,16 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>95</v>
@@ -11962,7 +11951,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11976,15 +11965,15 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>83</v>
@@ -11999,19 +11988,19 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12036,13 +12025,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12060,10 +12049,10 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -12078,7 +12067,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12092,7 +12081,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12103,30 +12092,32 @@
         <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>312</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12174,25 +12165,25 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>95</v>
+        <v>392</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12206,7 +12197,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12214,7 +12205,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>83</v>
@@ -12229,20 +12220,16 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12266,13 +12253,13 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12290,10 +12277,10 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
@@ -12302,13 +12289,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12322,11 +12309,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12339,26 +12326,24 @@
         <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
       </c>
@@ -12406,7 +12391,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12418,13 +12403,13 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>396</v>
+        <v>134</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12438,39 +12423,43 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12518,25 +12507,25 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12550,18 +12539,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -12573,7 +12562,7 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>399</v>
@@ -12582,7 +12571,7 @@
         <v>400</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>149</v>
+        <v>401</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12632,25 +12621,25 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12664,43 +12653,39 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12724,13 +12709,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -12748,25 +12733,25 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12780,7 +12765,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12803,17 +12788,15 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>85</v>
+        <v>408</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>77</v>
@@ -12838,13 +12821,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12862,7 +12845,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12871,7 +12854,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -12880,7 +12863,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12894,7 +12877,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12902,7 +12885,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>83</v>
@@ -12920,12 +12903,14 @@
         <v>103</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -12953,10 +12938,10 @@
         <v>200</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -12974,16 +12959,16 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -12992,7 +12977,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13006,7 +12991,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13014,7 +12999,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>83</v>
@@ -13029,20 +13014,24 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>412</v>
+        <v>207</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13062,13 +13051,13 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13086,16 +13075,16 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13104,7 +13093,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13118,7 +13107,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13141,22 +13130,26 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13176,13 +13169,13 @@
         <v>77</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>77</v>
@@ -13200,7 +13193,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13209,7 +13202,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13218,7 +13211,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13232,7 +13225,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13258,21 +13251,21 @@
         <v>207</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P99" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13316,7 +13309,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13325,7 +13318,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13334,7 +13327,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13348,7 +13341,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13371,26 +13364,22 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>207</v>
+        <v>439</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P100" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13434,7 +13423,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13443,7 +13432,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -13452,7 +13441,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13461,12 +13450,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13489,20 +13478,18 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>207</v>
+        <v>445</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13550,7 +13537,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13559,7 +13546,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -13568,7 +13555,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13582,7 +13569,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13593,7 +13580,7 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>77</v>
@@ -13605,16 +13592,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>443</v>
+        <v>312</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13664,16 +13651,16 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -13682,7 +13669,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13691,12 +13678,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13719,17 +13706,15 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>449</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -13778,7 +13763,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13787,16 +13772,16 @@
         <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13810,11 +13795,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13833,16 +13818,16 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>457</v>
+        <v>149</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13892,7 +13877,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13901,16 +13886,16 @@
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13924,39 +13909,43 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
       </c>
@@ -14004,25 +13993,25 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14036,18 +14025,18 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>77</v>
@@ -14059,16 +14048,16 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>128</v>
+        <v>458</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>149</v>
+        <v>461</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14094,13 +14083,13 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14118,25 +14107,25 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>325</v>
+        <v>457</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14150,47 +14139,47 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="Q107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14234,25 +14223,25 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>354</v>
+        <v>462</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14266,7 +14255,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14274,10 +14263,10 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>77</v>
@@ -14289,18 +14278,20 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
@@ -14324,13 +14315,13 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -14348,16 +14339,16 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>95</v>
@@ -14366,7 +14357,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14380,7 +14371,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14403,24 +14394,20 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>467</v>
+        <v>320</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P109" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14464,7 +14451,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>466</v>
+        <v>322</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14476,13 +14463,13 @@
         <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14496,11 +14483,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14519,20 +14506,18 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>473</v>
+        <v>396</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>77</v>
       </c>
@@ -14580,7 +14565,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>471</v>
+        <v>325</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -14589,16 +14574,16 @@
         <v>76</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>390</v>
+        <v>323</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14612,39 +14597,43 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14692,25 +14681,25 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14724,18 +14713,18 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>77</v>
@@ -14747,16 +14736,16 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>128</v>
+        <v>477</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>149</v>
+        <v>480</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14782,13 +14771,13 @@
         <v>77</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>77</v>
@@ -14806,25 +14795,25 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>325</v>
+        <v>476</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -14838,11 +14827,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14855,25 +14844,25 @@
         <v>77</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>352</v>
+        <v>482</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>149</v>
+        <v>484</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>150</v>
+        <v>485</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -14922,7 +14911,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>354</v>
+        <v>481</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -14931,16 +14920,16 @@
         <v>76</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>126</v>
+        <v>487</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -14949,236 +14938,6 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN115" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -434,6 +434,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>formSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/rendering-settings}
+</t>
+  </si>
+  <si>
+    <t>Extension : Item Rendering Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>subStatus</t>
   </si>
   <si>
@@ -444,10 +458,6 @@
     <t>Extension : SubStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>createUpdateAtDateTime</t>
   </si>
   <si>
@@ -456,16 +466,6 @@
   </si>
   <si>
     <t>Extension : ResourceCreateUpdateAtDateTime</t>
-  </si>
-  <si>
-    <t>formSettings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/rendering-settings}
-</t>
-  </si>
-  <si>
-    <t>Extension : Item Rendering Settings</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>
@@ -3034,7 +3034,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -3166,7 +3166,7 @@
         <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3262,7 +3262,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3280,7 +3280,7 @@
         <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -6250,13 +6250,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -10720,13 +10720,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -466,6 +466,16 @@
   </si>
   <si>
     <t>Extension : ResourceCreateUpdateAtDateTime</t>
+  </si>
+  <si>
+    <t>supportedLanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/supported-language}
+</t>
+  </si>
+  <si>
+    <t>Supported Language</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>
@@ -1942,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3363,11 +3373,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3380,26 +3392,22 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3447,7 +3455,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3456,7 +3464,7 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>134</v>
@@ -3465,7 +3473,7 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3479,42 +3487,42 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3563,28 +3571,28 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3595,7 +3603,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3603,7 +3611,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>83</v>
@@ -3618,19 +3626,19 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3679,13 +3687,13 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
@@ -3694,16 +3702,16 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3711,7 +3719,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3734,18 +3742,20 @@
         <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -3793,13 +3803,13 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
@@ -3808,16 +3818,16 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3825,7 +3835,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3833,7 +3843,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>83</v>
@@ -3851,17 +3861,15 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -3909,7 +3917,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3918,19 +3926,19 @@
         <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3941,7 +3949,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3967,15 +3975,17 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4023,7 +4033,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -4032,16 +4042,16 @@
         <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4055,7 +4065,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4066,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -4075,21 +4085,21 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4137,13 +4147,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -4152,10 +4162,10 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4169,7 +4179,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4177,33 +4187,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4227,13 +4237,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4251,13 +4261,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4266,13 +4276,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4283,7 +4293,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4291,7 +4301,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4300,26 +4310,24 @@
         <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4343,13 +4351,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4367,10 +4375,10 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>83</v>
@@ -4382,13 +4390,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4399,7 +4407,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4410,7 +4418,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4422,18 +4430,20 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4457,13 +4467,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4481,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
@@ -4496,13 +4506,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4513,18 +4523,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4536,16 +4546,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4571,13 +4581,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4595,13 +4605,13 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
@@ -4610,13 +4620,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4627,11 +4637,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4650,20 +4660,18 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4726,13 +4734,13 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4743,7 +4751,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4754,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4766,18 +4774,20 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4825,13 +4835,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4840,13 +4850,13 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4857,7 +4867,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4868,7 +4878,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4877,19 +4887,19 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4939,13 +4949,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4954,10 +4964,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4971,7 +4981,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4982,7 +4992,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4991,23 +5001,21 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5055,13 +5063,13 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
@@ -5070,10 +5078,10 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5087,7 +5095,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5110,18 +5118,20 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5145,13 +5155,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5169,7 +5179,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5184,10 +5194,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5201,7 +5211,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5212,7 +5222,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5221,19 +5231,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5259,13 +5269,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5283,13 +5293,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -5298,16 +5308,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5315,11 +5325,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5338,18 +5348,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5397,7 +5407,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5412,16 +5422,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5429,11 +5439,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5452,18 +5462,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5526,16 +5536,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5543,7 +5553,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5566,20 +5576,18 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5642,16 +5650,16 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5659,7 +5667,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5679,22 +5687,22 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5743,7 +5751,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5758,16 +5766,16 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5775,7 +5783,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5786,7 +5794,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5798,17 +5806,19 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5833,13 +5843,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5857,13 +5867,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5872,16 +5882,16 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5889,7 +5899,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5909,21 +5919,21 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5947,13 +5957,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5971,7 +5981,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5980,16 +5990,16 @@
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -6003,7 +6013,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6014,7 +6024,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6026,15 +6036,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6083,25 +6095,25 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6115,7 +6127,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6126,7 +6138,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6138,13 +6150,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6183,14 +6195,16 @@
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>325</v>
@@ -6199,19 +6213,19 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6225,11 +6239,9 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6250,13 +6262,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6295,19 +6307,17 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6316,7 +6326,7 @@
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>134</v>
@@ -6339,10 +6349,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6352,7 +6362,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6364,17 +6374,15 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6423,7 +6431,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6455,10 +6463,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>77</v>
@@ -6480,16 +6488,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6539,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6571,10 +6579,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
@@ -6596,15 +6604,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6653,7 +6663,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6685,7 +6695,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>340</v>
@@ -6716,11 +6726,9 @@
         <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6777,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6787,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6796,48 +6804,48 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C43" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6894,7 +6902,7 @@
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>134</v>
@@ -6903,56 +6911,56 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7001,25 +7009,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>126</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7033,7 +7041,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7041,7 +7049,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>83</v>
@@ -7056,19 +7064,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7117,10 +7125,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
@@ -7135,7 +7143,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7149,7 +7157,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7160,7 +7168,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7172,19 +7180,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7209,13 +7217,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7233,16 +7241,16 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>95</v>
@@ -7251,7 +7259,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7265,18 +7273,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7288,19 +7296,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7325,13 +7333,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7349,16 +7357,16 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>95</v>
@@ -7367,7 +7375,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7381,11 +7389,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7407,15 +7415,17 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7463,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7481,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7495,7 +7505,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7503,7 +7513,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7518,20 +7528,18 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7555,13 +7563,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7579,10 +7587,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -7597,7 +7605,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>386</v>
+        <v>254</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7611,7 +7619,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7619,34 +7627,34 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7671,13 +7679,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7695,25 +7703,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>392</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7727,7 +7735,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7738,28 +7746,32 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7807,25 +7819,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7839,18 +7851,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7862,17 +7874,15 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7927,19 +7937,19 @@
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7957,7 +7967,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7970,26 +7980,24 @@
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8037,7 +8045,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8055,7 +8063,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8069,41 +8077,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8151,25 +8161,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8183,7 +8193,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8206,15 +8216,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8239,13 +8251,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8263,7 +8275,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8281,7 +8293,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8295,7 +8307,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8318,13 +8330,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8351,13 +8363,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8375,7 +8387,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>83</v>
@@ -8384,7 +8396,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8393,7 +8405,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8407,7 +8419,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8415,7 +8427,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>83</v>
@@ -8430,17 +8442,15 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8465,40 +8475,40 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8507,7 +8517,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8521,7 +8531,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8544,24 +8554,22 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8581,13 +8589,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8605,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8614,7 +8622,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8623,7 +8631,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8637,7 +8645,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8660,79 +8668,77 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8741,7 +8747,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8755,7 +8761,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8778,24 +8784,26 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8839,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8848,7 +8856,7 @@
         <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8857,7 +8865,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8871,7 +8879,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8894,18 +8902,20 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8953,7 +8963,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8962,7 +8972,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8971,7 +8981,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8980,12 +8990,12 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9008,16 +9018,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9067,7 +9077,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9076,7 +9086,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9085,7 +9095,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9094,12 +9104,12 @@
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9110,7 +9120,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9122,16 +9132,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>312</v>
+        <v>448</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9181,16 +9191,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9199,7 +9209,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9223,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9224,7 +9234,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9236,15 +9246,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9293,25 +9305,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9325,18 +9337,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9348,17 +9360,15 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9413,19 +9423,19 @@
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9439,11 +9449,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9456,26 +9466,24 @@
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9523,7 +9531,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9541,7 +9549,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9555,41 +9563,43 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>458</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9613,13 +9623,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9637,25 +9647,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>457</v>
+        <v>353</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9669,7 +9679,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9677,7 +9687,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>83</v>
@@ -9692,24 +9702,22 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>207</v>
+        <v>461</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9729,13 +9737,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9753,10 +9761,10 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -9771,7 +9779,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9785,7 +9793,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9796,7 +9804,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9808,24 +9816,24 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9869,16 +9877,16 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>95</v>
@@ -9887,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9901,7 +9909,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9912,7 +9920,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9924,16 +9932,20 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9981,25 +9993,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10013,18 +10025,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10036,17 +10048,15 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10101,19 +10111,19 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10127,11 +10137,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10144,26 +10154,24 @@
         <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10211,7 +10219,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10229,7 +10237,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10243,41 +10251,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>477</v>
+        <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>351</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>352</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10301,13 +10311,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10325,25 +10335,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>476</v>
+        <v>353</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10357,7 +10367,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10365,10 +10375,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10380,20 +10390,18 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>312</v>
+        <v>480</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10417,13 +10425,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10441,16 +10449,16 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -10459,7 +10467,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>487</v>
+        <v>389</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10473,7 +10481,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10484,7 +10492,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10496,16 +10504,20 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>320</v>
+        <v>485</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10553,25 +10565,25 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>322</v>
+        <v>484</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>323</v>
+        <v>490</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10585,7 +10597,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10596,7 +10608,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10608,13 +10620,13 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10653,14 +10665,16 @@
         <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>325</v>
@@ -10669,19 +10683,19 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10695,11 +10709,9 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10708,7 +10720,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10720,13 +10732,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10765,19 +10777,17 @@
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10786,7 +10796,7 @@
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>134</v>
@@ -10809,10 +10819,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -10834,17 +10844,15 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10893,7 +10901,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10925,10 +10933,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10950,16 +10958,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11009,7 +11017,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11041,10 +11049,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11066,15 +11074,17 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11123,7 +11133,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11155,7 +11165,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>340</v>
@@ -11186,11 +11196,9 @@
         <v>342</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11239,7 +11247,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11257,7 +11265,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -11266,48 +11274,48 @@
         <v>77</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="C82" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11355,7 +11363,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11364,7 +11372,7 @@
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>134</v>
@@ -11373,56 +11381,56 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>355</v>
+        <v>153</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11471,25 +11479,25 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>356</v>
+        <v>126</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11503,7 +11511,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11511,7 +11519,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>83</v>
@@ -11526,19 +11534,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11587,10 +11595,10 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -11605,7 +11613,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11619,7 +11627,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11630,7 +11638,7 @@
         <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11642,19 +11650,19 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11679,13 +11687,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11703,16 +11711,16 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>95</v>
@@ -11721,7 +11729,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11735,18 +11743,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11758,19 +11766,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11795,13 +11803,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11819,16 +11827,16 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>95</v>
@@ -11837,7 +11845,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11851,11 +11859,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11877,15 +11885,17 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11933,7 +11943,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11951,7 +11961,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11965,7 +11975,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11973,7 +11983,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>83</v>
@@ -11988,20 +11998,18 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12025,13 +12033,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12049,10 +12057,10 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -12067,7 +12075,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>386</v>
+        <v>254</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12081,7 +12089,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12089,34 +12097,34 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12141,13 +12149,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12165,25 +12173,25 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>392</v>
+        <v>95</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12197,7 +12205,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12208,28 +12216,32 @@
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12277,25 +12289,25 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12309,18 +12321,18 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -12332,17 +12344,15 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12397,19 +12407,19 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12423,11 +12433,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12440,26 +12450,24 @@
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12507,7 +12515,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12525,7 +12533,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12539,41 +12547,43 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12621,25 +12631,25 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12653,7 +12663,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12676,15 +12686,17 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -12709,13 +12721,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -12733,7 +12745,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -12751,7 +12763,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12765,7 +12777,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12788,13 +12800,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12821,13 +12833,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12845,7 +12857,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12854,7 +12866,7 @@
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>95</v>
@@ -12863,7 +12875,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12877,7 +12889,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12885,7 +12897,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>83</v>
@@ -12900,17 +12912,15 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -12935,40 +12945,40 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -12977,7 +12987,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12991,7 +13001,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13014,24 +13024,22 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P97" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13051,13 +13059,13 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13075,7 +13083,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13084,7 +13092,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13093,7 +13101,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13107,7 +13115,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13130,79 +13138,77 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH98" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13211,7 +13217,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13225,7 +13231,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13248,24 +13254,26 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13309,7 +13317,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13318,7 +13326,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13327,7 +13335,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13341,7 +13349,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13364,18 +13372,20 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K100" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13423,7 +13433,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13432,7 +13442,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -13441,7 +13451,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13450,12 +13460,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13478,16 +13488,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13537,7 +13547,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13546,7 +13556,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -13555,7 +13565,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13564,12 +13574,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13580,7 +13590,7 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>77</v>
@@ -13592,16 +13602,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>312</v>
+        <v>448</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13651,16 +13661,16 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -13669,7 +13679,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13683,7 +13693,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13694,7 +13704,7 @@
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>77</v>
@@ -13706,15 +13716,17 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -13763,25 +13775,25 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13795,18 +13807,18 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>77</v>
@@ -13818,17 +13830,15 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -13883,19 +13893,19 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13909,11 +13919,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13926,26 +13936,24 @@
         <v>77</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>77</v>
       </c>
@@ -13993,7 +14001,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14011,7 +14019,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14025,41 +14033,43 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>458</v>
+        <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>460</v>
+        <v>352</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>77</v>
       </c>
@@ -14083,13 +14093,13 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14107,25 +14117,25 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>457</v>
+        <v>353</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14139,7 +14149,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14147,7 +14157,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>83</v>
@@ -14162,24 +14172,22 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>207</v>
+        <v>461</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P107" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14199,13 +14207,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14223,10 +14231,10 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>83</v>
@@ -14241,7 +14249,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14255,7 +14263,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14266,7 +14274,7 @@
         <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>77</v>
@@ -14278,24 +14286,24 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P108" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M108" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>77</v>
       </c>
@@ -14339,16 +14347,16 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>95</v>
@@ -14357,7 +14365,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14371,7 +14379,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14382,7 +14390,7 @@
         <v>75</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>77</v>
@@ -14394,16 +14402,20 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
       </c>
@@ -14451,25 +14463,25 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>322</v>
+        <v>470</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14483,18 +14495,18 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>77</v>
@@ -14506,17 +14518,15 @@
         <v>77</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>77</v>
@@ -14571,19 +14581,19 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14597,11 +14607,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14614,26 +14624,24 @@
         <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14681,7 +14689,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14699,7 +14707,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14713,41 +14721,43 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>477</v>
+        <v>128</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>478</v>
+        <v>351</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>479</v>
+        <v>352</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>77</v>
       </c>
@@ -14771,13 +14781,13 @@
         <v>77</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>77</v>
@@ -14795,25 +14805,25 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>476</v>
+        <v>353</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -14827,7 +14837,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14835,10 +14845,10 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>77</v>
@@ -14850,20 +14860,18 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M113" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>77</v>
       </c>
@@ -14887,13 +14895,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -14911,16 +14919,16 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>95</v>
@@ -14929,15 +14937,131 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
+      <c r="N114" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -468,14 +468,14 @@
     <t>Extension : ResourceCreateUpdateAtDateTime</t>
   </si>
   <si>
-    <t>supportedLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/supported-language}
+    <t>supportedLanguages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/supported-languages}
 </t>
   </si>
   <si>
-    <t>Supported Language</t>
+    <t>Supported Languages</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -461,7 +461,7 @@
     <t>createUpdateAtDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/resource-create-updateat-datetime}
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/resource-create-update-at-datetime}
 </t>
   </si>
   <si>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>Supported Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supported Languages : Contains a list of languages that is supported by the questionnaire</t>
   </si>
   <si>
     <t>Questionnaire.modifierExtension</t>
@@ -3404,7 +3407,7 @@
         <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3487,11 +3490,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3513,16 +3516,16 @@
         <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3571,7 +3574,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3629,16 +3632,16 @@
         <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3687,7 +3690,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3702,13 +3705,13 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3719,7 +3722,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3742,19 +3745,19 @@
         <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3803,7 +3806,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3818,16 +3821,16 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3838,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3861,13 +3864,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3878,7 +3881,7 @@
         <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -3917,7 +3920,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3932,13 +3935,13 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3949,7 +3952,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3975,16 +3978,16 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -4033,7 +4036,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -4042,7 +4045,7 @@
         <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>95</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4091,13 +4094,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4147,7 +4150,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4162,10 +4165,10 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4179,7 +4182,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4202,17 +4205,17 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4261,7 +4264,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4276,10 +4279,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4293,7 +4296,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4319,13 +4322,13 @@
         <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4351,13 +4354,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4375,7 +4378,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>83</v>
@@ -4390,13 +4393,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4407,7 +4410,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4430,19 +4433,19 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4491,7 +4494,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4506,13 +4509,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4523,7 +4526,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4549,13 +4552,13 @@
         <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4581,13 +4584,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4605,7 +4608,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4620,10 +4623,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4637,11 +4640,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4660,16 +4663,16 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4719,7 +4722,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4734,13 +4737,13 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4777,16 +4780,16 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4835,7 +4838,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4850,13 +4853,13 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4890,16 +4893,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4949,7 +4952,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4964,10 +4967,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5004,16 +5007,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5063,7 +5066,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5078,10 +5081,10 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5118,19 +5121,19 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5179,7 +5182,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5194,10 +5197,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5211,7 +5214,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5234,16 +5237,16 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5269,13 +5272,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5293,7 +5296,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5308,10 +5311,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5328,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5348,16 +5351,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5407,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5422,16 +5425,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5439,11 +5442,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5462,17 +5465,17 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5521,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5536,16 +5539,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5576,16 +5579,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5635,7 +5638,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5650,16 +5653,16 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5667,7 +5670,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5690,19 +5693,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5751,7 +5754,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5766,16 +5769,16 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5806,19 +5809,19 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5867,7 +5870,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5882,16 +5885,16 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5899,7 +5902,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5922,17 +5925,17 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5957,13 +5960,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5981,7 +5984,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5999,7 +6002,7 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -6013,7 +6016,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6036,16 +6039,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6095,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6104,16 +6107,16 @@
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6127,7 +6130,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6153,10 +6156,10 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6207,7 +6210,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6225,7 +6228,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6239,7 +6242,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6317,7 +6320,7 @@
         <v>132</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6431,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6466,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>77</v>
@@ -6488,16 +6491,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6547,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6579,10 +6582,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>77</v>
@@ -6604,16 +6607,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6663,7 +6666,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6695,10 +6698,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>77</v>
@@ -6720,10 +6723,10 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>130</v>
@@ -6777,7 +6780,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6809,10 +6812,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
@@ -6834,16 +6837,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6893,7 +6896,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6911,7 +6914,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6925,11 +6928,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6951,16 +6954,16 @@
         <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7009,7 +7012,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7067,16 +7070,16 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7125,7 +7128,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>83</v>
@@ -7143,7 +7146,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7157,7 +7160,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7183,16 +7186,16 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7241,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7259,7 +7262,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7273,7 +7276,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7296,19 +7299,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7333,13 +7336,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7357,7 +7360,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7366,7 +7369,7 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>95</v>
@@ -7375,7 +7378,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7389,11 +7392,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7415,16 +7418,16 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7473,7 +7476,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7491,7 +7494,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7505,7 +7508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7531,13 +7534,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7587,7 +7590,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7605,7 +7608,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7619,7 +7622,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7645,16 +7648,16 @@
         <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7679,13 +7682,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7703,7 +7706,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>83</v>
@@ -7721,7 +7724,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7735,7 +7738,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7758,19 +7761,19 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7819,7 +7822,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7831,13 +7834,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7851,7 +7854,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7877,10 +7880,10 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7931,7 +7934,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7949,7 +7952,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7963,11 +7966,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7989,13 +7992,13 @@
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8045,7 +8048,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8063,7 +8066,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8077,11 +8080,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8103,16 +8106,16 @@
         <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8161,7 +8164,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8193,7 +8196,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8219,13 +8222,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8275,7 +8278,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8293,7 +8296,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8307,7 +8310,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8333,10 +8336,10 @@
         <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8363,13 +8366,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8387,7 +8390,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>83</v>
@@ -8405,7 +8408,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8442,13 +8445,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8475,13 +8478,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8499,7 +8502,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>83</v>
@@ -8508,7 +8511,7 @@
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8517,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8531,7 +8534,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8557,13 +8560,13 @@
         <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8589,13 +8592,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8613,7 +8616,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8622,7 +8625,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8631,7 +8634,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8645,7 +8648,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8668,23 +8671,23 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>77</v>
@@ -8729,7 +8732,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8738,7 +8741,7 @@
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8747,7 +8750,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8761,7 +8764,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8784,79 +8787,79 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8865,7 +8868,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8879,7 +8882,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8902,19 +8905,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8963,7 +8966,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8972,7 +8975,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8981,7 +8984,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8995,7 +8998,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9018,16 +9021,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9077,7 +9080,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9086,7 +9089,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9095,7 +9098,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9109,7 +9112,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9132,16 +9135,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9191,7 +9194,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9200,7 +9203,7 @@
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9209,7 +9212,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9223,7 +9226,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9246,16 +9249,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9305,7 +9308,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9314,7 +9317,7 @@
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9323,7 +9326,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9337,7 +9340,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9363,10 +9366,10 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9417,7 +9420,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9435,7 +9438,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9449,11 +9452,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9475,13 +9478,13 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9531,7 +9534,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9549,7 +9552,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9563,11 +9566,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9589,16 +9592,16 @@
         <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9647,7 +9650,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9702,16 +9705,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9737,13 +9740,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9761,7 +9764,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>83</v>
@@ -9779,7 +9782,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9793,7 +9796,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9816,23 +9819,23 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>77</v>
@@ -9877,7 +9880,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9895,7 +9898,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9909,7 +9912,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9932,19 +9935,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9993,7 +9996,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10002,7 +10005,7 @@
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>95</v>
@@ -10011,7 +10014,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10025,7 +10028,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10051,10 +10054,10 @@
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10105,7 +10108,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10123,7 +10126,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10137,11 +10140,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10163,13 +10166,13 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10219,7 +10222,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -10237,7 +10240,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10251,11 +10254,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10277,16 +10280,16 @@
         <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -10335,7 +10338,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10367,7 +10370,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10390,16 +10393,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10425,13 +10428,13 @@
         <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10449,7 +10452,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>83</v>
@@ -10467,7 +10470,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10481,7 +10484,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10504,19 +10507,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10565,7 +10568,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10574,7 +10577,7 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -10583,7 +10586,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10623,10 +10626,10 @@
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10677,7 +10680,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10695,7 +10698,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10709,7 +10712,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10787,7 +10790,7 @@
         <v>132</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10819,10 +10822,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>77</v>
@@ -10901,7 +10904,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10933,10 +10936,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>77</v>
@@ -10958,16 +10961,16 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11017,7 +11020,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11049,10 +11052,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>77</v>
@@ -11074,16 +11077,16 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11133,7 +11136,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11165,10 +11168,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>77</v>
@@ -11190,10 +11193,10 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>130</v>
@@ -11247,7 +11250,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11279,10 +11282,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>77</v>
@@ -11304,16 +11307,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11363,7 +11366,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11381,7 +11384,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11395,11 +11398,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11421,16 +11424,16 @@
         <v>128</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11479,7 +11482,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11511,7 +11514,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11537,16 +11540,16 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11595,7 +11598,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>83</v>
@@ -11613,7 +11616,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11627,7 +11630,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11653,16 +11656,16 @@
         <v>97</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11711,7 +11714,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11729,7 +11732,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11743,7 +11746,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11766,19 +11769,19 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11803,13 +11806,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11827,7 +11830,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11836,7 +11839,7 @@
         <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>95</v>
@@ -11845,7 +11848,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11859,11 +11862,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11885,16 +11888,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11943,7 +11946,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11961,7 +11964,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11975,7 +11978,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12001,13 +12004,13 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12057,7 +12060,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12075,7 +12078,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12089,7 +12092,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12115,16 +12118,16 @@
         <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12149,13 +12152,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12173,7 +12176,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>83</v>
@@ -12191,7 +12194,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12205,7 +12208,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12228,19 +12231,19 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12289,7 +12292,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12301,13 +12304,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12347,10 +12350,10 @@
         <v>85</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12401,7 +12404,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12419,7 +12422,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12433,11 +12436,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12459,13 +12462,13 @@
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12515,7 +12518,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12533,7 +12536,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12547,11 +12550,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12573,16 +12576,16 @@
         <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
@@ -12631,7 +12634,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12663,7 +12666,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12689,13 +12692,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12745,7 +12748,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -12763,7 +12766,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12777,7 +12780,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12803,10 +12806,10 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12833,13 +12836,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12857,7 +12860,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12875,7 +12878,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12889,7 +12892,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12912,13 +12915,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12945,13 +12948,13 @@
         <v>77</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -12969,7 +12972,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>83</v>
@@ -12978,7 +12981,7 @@
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -12987,7 +12990,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13001,7 +13004,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13027,13 +13030,13 @@
         <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13059,13 +13062,13 @@
         <v>77</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13083,7 +13086,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13092,7 +13095,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13101,7 +13104,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13115,7 +13118,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13138,23 +13141,23 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>77</v>
@@ -13199,7 +13202,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13208,7 +13211,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13217,7 +13220,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13231,7 +13234,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13254,79 +13257,79 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH99" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13335,7 +13338,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13349,7 +13352,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13372,19 +13375,19 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -13433,7 +13436,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13442,7 +13445,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -13451,7 +13454,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13465,7 +13468,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13488,16 +13491,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13547,7 +13550,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13556,7 +13559,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -13565,7 +13568,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13579,7 +13582,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13602,16 +13605,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13661,7 +13664,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13670,7 +13673,7 @@
         <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -13679,7 +13682,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13693,7 +13696,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13716,16 +13719,16 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13775,7 +13778,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13784,7 +13787,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>95</v>
@@ -13793,7 +13796,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13807,7 +13810,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13833,10 +13836,10 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13887,7 +13890,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13905,7 +13908,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -13919,11 +13922,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13945,13 +13948,13 @@
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14001,7 +14004,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -14019,7 +14022,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14033,11 +14036,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14059,16 +14062,16 @@
         <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>77</v>
@@ -14117,7 +14120,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14149,7 +14152,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14172,16 +14175,16 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14207,13 +14210,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14231,7 +14234,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>83</v>
@@ -14249,7 +14252,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14263,7 +14266,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14286,23 +14289,23 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q108" t="s" s="2">
         <v>77</v>
@@ -14347,7 +14350,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -14365,7 +14368,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14379,7 +14382,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14402,19 +14405,19 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -14463,7 +14466,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14472,7 +14475,7 @@
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>95</v>
@@ -14481,7 +14484,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14495,7 +14498,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14521,10 +14524,10 @@
         <v>85</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14575,7 +14578,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -14593,7 +14596,7 @@
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -14607,11 +14610,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14633,13 +14636,13 @@
         <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -14689,7 +14692,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14707,7 +14710,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -14721,11 +14724,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14747,16 +14750,16 @@
         <v>128</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>77</v>
@@ -14805,7 +14808,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14837,7 +14840,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14860,16 +14863,16 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14895,13 +14898,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -14919,7 +14922,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>83</v>
@@ -14937,7 +14940,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -14951,7 +14954,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14977,16 +14980,16 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15035,7 +15038,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15044,7 +15047,7 @@
         <v>76</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>95</v>
@@ -15053,7 +15056,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="527">
   <si>
     <t>Property</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>Extension : observationExtract</t>
+  </si>
+  <si>
+    <t>If true, indicates that the observation-based approach should be used to extract either the particular item (if extension is defined on an individual question or group based on the code present) or all items in the questionnaire (if defined at the questionnaire root and if they have a code present).</t>
   </si>
   <si>
     <t>minValue</t>
@@ -6729,7 +6732,7 @@
         <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>130</v>
+        <v>344</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6815,7 +6818,7 @@
         <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
@@ -6837,16 +6840,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6914,7 +6917,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6928,11 +6931,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6954,10 +6957,10 @@
         <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>153</v>
@@ -7012,7 +7015,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7044,7 +7047,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7070,16 +7073,16 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7128,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>83</v>
@@ -7146,7 +7149,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7186,16 +7189,16 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7244,7 +7247,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7262,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7276,7 +7279,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7302,16 +7305,16 @@
         <v>307</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7360,7 +7363,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7392,11 +7395,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7418,16 +7421,16 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7476,7 +7479,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7494,7 +7497,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7508,7 +7511,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7534,13 +7537,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7590,7 +7593,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7622,7 +7625,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7648,16 +7651,16 @@
         <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7685,10 +7688,10 @@
         <v>204</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7706,7 +7709,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>83</v>
@@ -7724,7 +7727,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7738,7 +7741,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7764,16 +7767,16 @@
         <v>316</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7822,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7834,13 +7837,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7854,7 +7857,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7966,7 +7969,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7992,10 +7995,10 @@
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>153</v>
@@ -8080,11 +8083,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8106,10 +8109,10 @@
         <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>153</v>
@@ -8164,7 +8167,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8196,7 +8199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8222,13 +8225,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8278,7 +8281,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8296,7 +8299,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8310,7 +8313,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8336,10 +8339,10 @@
         <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8369,10 +8372,10 @@
         <v>204</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8390,7 +8393,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>83</v>
@@ -8408,7 +8411,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8422,7 +8425,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8445,13 +8448,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8481,10 +8484,10 @@
         <v>311</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8502,7 +8505,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>83</v>
@@ -8511,7 +8514,7 @@
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8520,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8560,13 +8563,13 @@
         <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8595,10 +8598,10 @@
         <v>204</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8616,7 +8619,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8625,7 +8628,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8634,7 +8637,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8648,7 +8651,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8674,20 +8677,20 @@
         <v>211</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>77</v>
@@ -8732,7 +8735,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8741,7 +8744,7 @@
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8750,7 +8753,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8764,7 +8767,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8790,76 +8793,76 @@
         <v>211</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8868,7 +8871,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8882,7 +8885,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8908,16 +8911,16 @@
         <v>211</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8966,7 +8969,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8975,7 +8978,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8984,7 +8987,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8998,7 +9001,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9021,16 +9024,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9080,7 +9083,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9089,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9098,7 +9101,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9112,7 +9115,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9135,16 +9138,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9194,7 +9197,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9203,7 +9206,7 @@
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9212,7 +9215,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9226,7 +9229,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9252,13 +9255,13 @@
         <v>316</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9308,7 +9311,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9317,7 +9320,7 @@
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9326,7 +9329,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9340,7 +9343,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9452,7 +9455,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9478,10 +9481,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>153</v>
@@ -9566,11 +9569,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9592,10 +9595,10 @@
         <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>153</v>
@@ -9650,7 +9653,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9682,7 +9685,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9705,16 +9708,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9743,10 +9746,10 @@
         <v>311</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9764,7 +9767,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>83</v>
@@ -9782,7 +9785,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9796,7 +9799,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9822,20 +9825,20 @@
         <v>211</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>77</v>
@@ -9880,7 +9883,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9898,7 +9901,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9912,7 +9915,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9938,16 +9941,16 @@
         <v>316</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9996,7 +9999,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10005,7 +10008,7 @@
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>95</v>
@@ -10014,7 +10017,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10028,7 +10031,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10140,7 +10143,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10166,10 +10169,10 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>153</v>
@@ -10254,11 +10257,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10280,10 +10283,10 @@
         <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>153</v>
@@ -10338,7 +10341,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10370,7 +10373,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10393,16 +10396,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10431,10 +10434,10 @@
         <v>311</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10455,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>83</v>
@@ -10470,7 +10473,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10484,7 +10487,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10510,16 +10513,16 @@
         <v>316</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10568,7 +10571,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10577,7 +10580,7 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -10586,7 +10589,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10600,7 +10603,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10712,7 +10715,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10822,7 +10825,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>330</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>331</v>
@@ -11052,7 +11055,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>336</v>
@@ -11168,7 +11171,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>341</v>
@@ -11199,7 +11202,7 @@
         <v>343</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>130</v>
+        <v>344</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11282,10 +11285,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>77</v>
@@ -11307,16 +11310,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11384,7 +11387,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11398,11 +11401,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11424,10 +11427,10 @@
         <v>128</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>153</v>
@@ -11482,7 +11485,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11514,7 +11517,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11540,16 +11543,16 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11598,7 +11601,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>83</v>
@@ -11616,7 +11619,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11630,7 +11633,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11656,16 +11659,16 @@
         <v>97</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11714,7 +11717,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11732,7 +11735,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11746,7 +11749,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11772,16 +11775,16 @@
         <v>307</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11830,7 +11833,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11862,11 +11865,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11888,16 +11891,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11946,7 +11949,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11964,7 +11967,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11978,7 +11981,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12004,13 +12007,13 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12060,7 +12063,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12092,7 +12095,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12118,16 +12121,16 @@
         <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12155,10 +12158,10 @@
         <v>204</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12176,7 +12179,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>83</v>
@@ -12194,7 +12197,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12208,7 +12211,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12234,16 +12237,16 @@
         <v>316</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12292,7 +12295,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12304,13 +12307,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12324,7 +12327,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12436,7 +12439,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12462,10 +12465,10 @@
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>153</v>
@@ -12550,11 +12553,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12576,10 +12579,10 @@
         <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>153</v>
@@ -12634,7 +12637,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12666,7 +12669,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12692,13 +12695,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12748,7 +12751,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -12766,7 +12769,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12780,7 +12783,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12806,10 +12809,10 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12839,10 +12842,10 @@
         <v>204</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12860,7 +12863,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12878,7 +12881,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12892,7 +12895,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12915,13 +12918,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12951,10 +12954,10 @@
         <v>311</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -12972,7 +12975,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>83</v>
@@ -12981,7 +12984,7 @@
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -12990,7 +12993,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13004,7 +13007,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13030,13 +13033,13 @@
         <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13065,10 +13068,10 @@
         <v>204</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13086,7 +13089,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13095,7 +13098,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13104,7 +13107,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13118,7 +13121,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13144,20 +13147,20 @@
         <v>211</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>77</v>
@@ -13202,7 +13205,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13211,7 +13214,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13220,7 +13223,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13234,7 +13237,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13260,76 +13263,76 @@
         <v>211</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH99" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13338,7 +13341,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13352,7 +13355,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13378,16 +13381,16 @@
         <v>211</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -13436,7 +13439,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13445,7 +13448,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -13454,7 +13457,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13468,7 +13471,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13491,16 +13494,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13550,7 +13553,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13559,7 +13562,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -13568,7 +13571,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13582,7 +13585,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13605,16 +13608,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13664,7 +13667,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13673,7 +13676,7 @@
         <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -13682,7 +13685,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13696,7 +13699,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13722,13 +13725,13 @@
         <v>316</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13778,7 +13781,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13787,7 +13790,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>95</v>
@@ -13796,7 +13799,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13810,7 +13813,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13922,7 +13925,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13948,10 +13951,10 @@
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>153</v>
@@ -14036,11 +14039,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14062,10 +14065,10 @@
         <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>153</v>
@@ -14120,7 +14123,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14152,7 +14155,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14175,16 +14178,16 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14213,10 +14216,10 @@
         <v>311</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14234,7 +14237,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>83</v>
@@ -14252,7 +14255,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14266,7 +14269,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14292,20 +14295,20 @@
         <v>211</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q108" t="s" s="2">
         <v>77</v>
@@ -14350,7 +14353,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -14368,7 +14371,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14382,7 +14385,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14408,16 +14411,16 @@
         <v>316</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -14466,7 +14469,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14475,7 +14478,7 @@
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>95</v>
@@ -14484,7 +14487,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14498,7 +14501,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14610,7 +14613,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14636,10 +14639,10 @@
         <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>153</v>
@@ -14724,11 +14727,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14750,10 +14753,10 @@
         <v>128</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>153</v>
@@ -14808,7 +14811,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14840,7 +14843,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14863,16 +14866,16 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14901,10 +14904,10 @@
         <v>311</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -14922,7 +14925,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>83</v>
@@ -14940,7 +14943,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -14954,7 +14957,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14980,16 +14983,16 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15038,7 +15041,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15047,7 +15050,7 @@
         <v>76</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>95</v>
@@ -15056,7 +15059,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>

--- a/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/version-1/StructureDefinition-questionnaire-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -1081,14 +1081,17 @@
     <t>observationExtract</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/observation-extract}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire-observationExtract}
 </t>
   </si>
   <si>
-    <t>Extension : observationExtract</t>
+    <t>Marks an item (or all items in a questionnaire) to be extracted using the observation-based approach</t>
   </si>
   <si>
     <t>If true, indicates that the observation-based approach should be used to extract either the particular item (if extension is defined on an individual question or group based on the code present) or all items in the questionnaire (if defined at the questionnaire root and if they have a code present).</t>
+  </si>
+  <si>
+    <t>This extension canot be specified on "display" items.</t>
   </si>
   <si>
     <t>minValue</t>
@@ -1977,7 +1980,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6734,7 +6737,9 @@
       <c r="L42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6818,7 +6823,7 @@
         <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>77</v>
@@ -6840,16 +6845,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6917,7 +6922,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6931,11 +6936,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6957,10 +6962,10 @@
         <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>153</v>
@@ -7015,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7047,7 +7052,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7073,16 +7078,16 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7131,7 +7136,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>83</v>
@@ -7149,7 +7154,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7163,7 +7168,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7189,16 +7194,16 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7247,7 +7252,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7265,7 +7270,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7279,7 +7284,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7305,16 +7310,16 @@
         <v>307</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7363,7 +7368,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7395,11 +7400,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7421,16 +7426,16 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7479,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7497,7 +7502,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7511,7 +7516,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7537,13 +7542,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7593,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7625,7 +7630,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7651,16 +7656,16 @@
         <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7688,10 +7693,10 @@
         <v>204</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7709,7 +7714,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>83</v>
@@ -7727,7 +7732,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7741,7 +7746,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7767,16 +7772,16 @@
         <v>316</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7825,7 +7830,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7837,13 +7842,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7857,7 +7862,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7969,7 +7974,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7995,10 +8000,10 @@
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>153</v>
@@ -8083,11 +8088,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8109,10 +8114,10 @@
         <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>153</v>
@@ -8167,7 +8172,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8199,7 +8204,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8225,13 +8230,13 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8281,7 +8286,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8299,7 +8304,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8313,7 +8318,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8339,10 +8344,10 @@
         <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8372,10 +8377,10 @@
         <v>204</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8393,7 +8398,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>83</v>
@@ -8411,7 +8416,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8430,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8448,13 +8453,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8484,10 +8489,10 @@
         <v>311</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8505,7 +8510,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>83</v>
@@ -8514,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8523,7 +8528,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8537,7 +8542,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8563,13 +8568,13 @@
         <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8598,10 +8603,10 @@
         <v>204</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8619,7 +8624,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8628,7 +8633,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8637,7 +8642,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8651,7 +8656,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8677,20 +8682,20 @@
         <v>211</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8740,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8744,7 +8749,7 @@
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8753,7 +8758,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8767,7 +8772,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8793,76 +8798,76 @@
         <v>211</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8871,7 +8876,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8885,7 +8890,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8911,16 +8916,16 @@
         <v>211</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8969,7 +8974,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8978,7 +8983,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8987,7 +8992,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9001,7 +9006,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9024,16 +9029,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9083,7 +9088,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9092,7 +9097,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9101,7 +9106,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9115,7 +9120,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9138,16 +9143,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9197,7 +9202,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9206,7 +9211,7 @@
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9215,7 +9220,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9229,7 +9234,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9255,13 +9260,13 @@
         <v>316</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9311,7 +9316,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9320,7 +9325,7 @@
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9329,7 +9334,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9343,7 +9348,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9455,7 +9460,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9481,10 +9486,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>153</v>
@@ -9569,11 +9574,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9595,10 +9600,10 @@
         <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>153</v>
@@ -9653,7 +9658,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9685,7 +9690,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9708,16 +9713,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9746,10 +9751,10 @@
         <v>311</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9767,7 +9772,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>83</v>
@@ -9785,7 +9790,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9799,7 +9804,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9825,20 +9830,20 @@
         <v>211</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>77</v>
@@ -9883,7 +9888,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9901,7 +9906,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9915,7 +9920,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9941,16 +9946,16 @@
         <v>316</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9999,7 +10004,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10008,7 +10013,7 @@
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>95</v>
@@ -10017,7 +10022,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10031,7 +10036,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10143,7 +10148,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10169,10 +10174,10 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>153</v>
@@ -10257,11 +10262,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10283,10 +10288,10 @@
         <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>153</v>
@@ -10341,7 +10346,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10373,7 +10378,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10396,16 +10401,16 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10434,10 +10439,10 @@
         <v>311</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10455,7 +10460,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>83</v>
@@ -10473,7 +10478,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10487,7 +10492,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10513,16 +10518,16 @@
         <v>316</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10571,7 +10576,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10580,7 +10585,7 @@
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>95</v>
@@ -10589,7 +10594,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10603,7 +10608,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10715,7 +10720,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10825,7 +10830,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>330</v>
@@ -10939,7 +10944,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>331</v>
@@ -11055,7 +11060,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>336</v>
@@ -11171,7 +11176,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>341</v>
@@ -11204,7 +11209,9 @@
       <c r="L81" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M81" s="2"/>
+      <c r="M81" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -11285,10 +11292,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>77</v>
@@ -11310,16 +11317,16 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11387,7 +11394,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -11401,11 +11408,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11427,10 +11434,10 @@
         <v>128</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>153</v>
@@ -11485,7 +11492,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11517,7 +11524,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11543,16 +11550,16 @@
         <v>85</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11601,7 +11608,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>83</v>
@@ -11619,7 +11626,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11633,7 +11640,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11659,16 +11666,16 @@
         <v>97</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11717,7 +11724,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11735,7 +11742,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11749,7 +11756,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11775,16 +11782,16 @@
         <v>307</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11833,7 +11840,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11865,11 +11872,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11891,16 +11898,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11949,7 +11956,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11967,7 +11974,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11981,7 +11988,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12007,13 +12014,13 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12063,7 +12070,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12095,7 +12102,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12121,16 +12128,16 @@
         <v>103</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -12158,10 +12165,10 @@
         <v>204</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12179,7 +12186,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>83</v>
@@ -12197,7 +12204,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12211,7 +12218,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12237,16 +12244,16 @@
         <v>316</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12295,7 +12302,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12307,13 +12314,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12327,7 +12334,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12439,7 +12446,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12465,10 +12472,10 @@
         <v>128</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>153</v>
@@ -12553,11 +12560,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12579,10 +12586,10 @@
         <v>128</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>153</v>
@@ -12637,7 +12644,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12669,7 +12676,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12695,13 +12702,13 @@
         <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12751,7 +12758,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -12769,7 +12776,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12783,7 +12790,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12809,10 +12816,10 @@
         <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12842,10 +12849,10 @@
         <v>204</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12863,7 +12870,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12881,7 +12888,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12895,7 +12902,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12918,13 +12925,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12954,10 +12961,10 @@
         <v>311</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -12975,7 +12982,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>83</v>
@@ -12984,7 +12991,7 @@
         <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>95</v>
@@ -12993,7 +13000,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13007,7 +13014,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13033,13 +13040,13 @@
         <v>103</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13068,10 +13075,10 @@
         <v>204</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>77</v>
@@ -13089,7 +13096,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13098,7 +13105,7 @@
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>95</v>
@@ -13107,7 +13114,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13121,7 +13128,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13147,20 +13154,20 @@
         <v>211</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q98" t="s" s="2">
         <v>77</v>
@@ -13205,7 +13212,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13214,7 +13221,7 @@
         <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>95</v>
@@ -13223,7 +13230,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13237,7 +13244,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13263,76 +13270,76 @@
         <v>211</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH99" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>95</v>
@@ -13341,7 +13348,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13355,7 +13362,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13381,16 +13388,16 @@
         <v>211</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -13439,7 +13446,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13448,7 +13455,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>95</v>
@@ -13457,7 +13464,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -13471,7 +13478,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13494,16 +13501,16 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13553,7 +13560,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13562,7 +13569,7 @@
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>95</v>
@@ -13571,7 +13578,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13585,7 +13592,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13608,16 +13615,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13667,7 +13674,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13676,7 +13683,7 @@
         <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>95</v>
@@ -13685,7 +13692,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -13699,7 +13706,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13725,13 +13732,13 @@
         <v>316</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13781,7 +13788,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13790,7 +13797,7 @@
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>95</v>
@@ -13799,7 +13806,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -13813,7 +13820,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13925,7 +13932,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13951,10 +13958,10 @@
         <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>153</v>
@@ -14039,11 +14046,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14065,10 +14072,10 @@
         <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>153</v>
@@ -14123,7 +14130,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -14155,7 +14162,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14178,16 +14185,16 @@
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14216,10 +14223,10 @@
         <v>311</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14237,7 +14244,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>83</v>
@@ -14255,7 +14262,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14269,7 +14276,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14295,20 +14302,20 @@
         <v>211</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P108" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q108" t="s" s="2">
         <v>77</v>
@@ -14353,7 +14360,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -14371,7 +14378,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -14385,7 +14392,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14411,16 +14418,16 @@
         <v>316</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -14469,7 +14476,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -14478,7 +14485,7 @@
         <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>95</v>
@@ -14487,7 +14494,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -14501,7 +14508,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14613,7 +14620,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14639,10 +14646,10 @@
         <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>153</v>
@@ -14727,11 +14734,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14753,10 +14760,10 @@
         <v>128</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>153</v>
@@ -14811,7 +14818,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14843,7 +14850,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14866,16 +14873,16 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14904,10 +14911,10 @@
         <v>311</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -14925,7 +14932,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>83</v>
@@ -14943,7 +14950,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -14957,7 +14964,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14983,16 +14990,16 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15041,7 +15048,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15050,7 +15057,7 @@
         <v>76</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>95</v>
@@ -15059,7 +15066,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
